--- a/biology/Zoologie/Euryapsida/Euryapsida.xlsx
+++ b/biology/Zoologie/Euryapsida/Euryapsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euryapside
 Les Euryapsida (Euryapsides en français) sont un super-ordre obsolète qui regroupait les sauropsides dont le crâne possède une seule fosse temporale.
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le super-ordre des Euryapsida est attribué, en 1945, au paléontologue américain Edwin Harris Colbert (1905-2001).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce groupe a été différencié des synapsidiens car leur fosse ne se trouve pas au même endroit. Cette ouverture est bordée par les os postorbital, squamosal et pariétal.
 Aujourd'hui on pense que ce groupe n'est qu'un cas particulier de diapsidiens pour lequel la seconde fosse temporale s'est bouchée. C'était le cas des plésiosauriens et des ichtyosauriens.
